--- a/TRenesas_MCU_35H/octopart_price.xlsx
+++ b/TRenesas_MCU_35H/octopart_price.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
@@ -6432,6 +6432,6244 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>R5F1036AASM#35</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>R5F1036AASM#35</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1,825</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>R5F1036AASM#55</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>R5F1036AASM#55</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2,500</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>R5F1036AASM#15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>R5F1036AASM#15</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>3,328</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CLK#AC0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>11.857</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>968-R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0.977</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2347128P</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1.453</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3288586</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1.112</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>8h</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35-ND</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7,978</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0.772</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1,760</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#35</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#55</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>968-R5F1026AASP#55</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3,447</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>0.772</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#55</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>5120315</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#55</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#55</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#V5</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2946639</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0.894</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>R5F1026AASP#V5</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>84AC2606</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>15h</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>968-QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>17.280</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2505083</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>19.406</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>C1S620200389839</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>21.800</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>4176985</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>17.047</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>8h</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>QB-R5F1026A-TB</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#30</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>559-R5F104LDGFA#30-ND</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1.764</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#30</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#30</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1.748</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#50</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#50</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1.748</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#10</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>R5F104LDGFA#10</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1.748</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>968-R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>3.350</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>4147129</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>3.510</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>9h</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>C1S620200841010</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2.770</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2630135P</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>6.299</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#30</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#50</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#50</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#50</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3159672</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#10</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#10</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1,280</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R5F51308ADFM#10</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>3145317</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1,280</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>R5F5630DDDLC#U0</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>R5F5630DDDLC#U0</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>12.003</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R5F571MLGDFC#10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>R5F571MLGDFC#10</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>13.925</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>968-S5D97E3A01CFBAA0</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>17.060</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1928161</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>22.349</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>C1S620200689456</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>11.100</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>17h</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3213837</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>19.852</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>9h</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>9143622</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>15.700</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>13.900</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#30</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#30</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2,160</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#50</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#50</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2,500</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#10</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#10</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>3,328</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>R5F564MFGGFP#V1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>R5F564MFGGFP#V1</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>11.176</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#10</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#10</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2.182</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#50</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#50</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2.182</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#30</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>559-R5F104MFGFA#30-ND</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2.205</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>6d</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>5161340</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>8.570</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>7.589</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#50</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#50</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2.096</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#10</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#10</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2.096</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>3261374</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>17.657</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>9h</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>3261374</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>21.451</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>39AH9117</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>13.530</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#BC0</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#BC0</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1,368</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#10</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#10</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1,280</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#V0</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#V0</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>7.585</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>19h</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#V0</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#V0</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#50</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#50</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30-ND</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2.308</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>C1S620200743523</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>4.680</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>17h</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>3.075</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#W0</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#W0</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>3.075</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>3941856</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>1.743</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>9h</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>968-R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1.410</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>29AK6851</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1.580</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>3941856</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>1.618</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#10</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>968-R5F100GEGFB#10</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1.710</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#10</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#10</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#50</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#50</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>R5F565N9BDFP#10</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>R5F565N9BDFP#10</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>6.138</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1,506</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>10.924</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1774977</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>15.888</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>21h</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#50</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#50</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2,500</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#30</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#30</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1,920</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#10</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#10</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>3,328</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#2A</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#2A</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>2.530</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#4A</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#4A</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2,500</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#0A</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#0A</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>3,328</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#50</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#50</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30-ND</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>1.929</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>1.897</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#10</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#10</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#30</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>C1S620200763703</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>2.340</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>18h</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#30</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>4147050</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>1.938</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>10h</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#30</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>968-R5F104MFAFB#30</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>1.900</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#30</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>68AK9632</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>2.660</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#30</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#50</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>5120437</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>2.410</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#50</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#50</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>1.885</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#10</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#10</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>1.885</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Euro-Tech</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>&gt;1wk</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>C1S620200511793</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>8.920</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>18h</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>12.140</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#U0</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#U0</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>1.488</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#W0</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#W0</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>1.488</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>3.187</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#HA0</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#HA0</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>3.187</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#BA0</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>3.187</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>R5F10BLGCKFB#35</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>968-R5F10BLGCKFB#35</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>3.380</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>R5F571MGDDFB#10</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>R5F571MGDDFB#10</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>12.226</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>559-R5F566TEEGFP#30-ND</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>5.457</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>5.617</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#10</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#10</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>5.617</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#3A</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#3A</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>1.339</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#1A</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#1A</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#5A</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#5A</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>4146975</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>2.973</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>11h</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30-ND</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>2.911</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>C1S620200845405</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>2.430</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>18h</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2630059P</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>4.457</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>22h</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#10</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>968-R5F100LLAFA#10</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>2.940</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#10</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Chip One Stop</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>C1S620202210409</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>2.320</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>18h</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#10</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#10</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>2.889</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#50</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#50</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2.889</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
